--- a/document/Project_AD設計資料.xlsx
+++ b/document/Project_AD設計資料.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\officinaWork\com.officina-hide.base\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E606E4-CD58-48F1-9358-A8F7AC265E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A85980-23E7-4B6C-9D57-96E17C6B9D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21996" windowHeight="13176" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基本設計" sheetId="1" r:id="rId1"/>
+    <sheet name="機能設計" sheetId="2" r:id="rId2"/>
+    <sheet name="テーブル一覧" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1"/>
@@ -152,6 +154,593 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ソナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親タスク</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前提タスク</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定、未着手、着手、保留、完了、中止</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホリュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数、金額リスト</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト情報</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態リスト</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント情報</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニタスク情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク状況履歴情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク前提ID情報</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト情報ID</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Project_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Project</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Project_Status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間開始</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Project_Term_Start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間終了</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Project_Term_End</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク情報ID</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面共通</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト入力</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextField</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_SimpleTextEntry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Task_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク番号</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Task_Code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト番号</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Project_Code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク状態</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Task_Status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照情報</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"TaskStatus"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮設定</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中止</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間開始</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Task_Term_Start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD_Task_Term_END</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間終了</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>開始、期限、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>状態更新</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>件名、説明、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ドキュメント</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>作業内容（リスト形式）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ミニタスク</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース情報リスト</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字はテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能設計</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル識別名</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル論理名</t>
+    <rPh sb="4" eb="6">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構築日</t>
+    <rPh sb="0" eb="2">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -160,7 +749,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -174,6 +763,20 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +786,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -191,13 +794,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +980,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706BCB1B-097F-438F-8FCE-56902E075237}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +1361,7 @@
     <col min="1" max="102" width="2.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,62 +1369,642 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.3">
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="V5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="V6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="V8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="V9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="V10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="V11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>13</v>
+      </c>
+      <c r="V12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AD13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="U14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="V15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="V19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="V20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="V21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="AX22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="AX23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="AX24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="AX25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="13:54" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="13:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="13:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="5"/>
+      <c r="AB28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:Z28"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06485BC-ED55-4687-80D6-8D812ACA0CBF}">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="139" width="2.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67655163-E4FC-4803-BD4D-DB7D4B824984}">
+  <dimension ref="B1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="135" width="2.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:R5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:R3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/Project_AD設計資料.xlsx
+++ b/document/Project_AD設計資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\officinaWork\com.officina-hide.base\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A85980-23E7-4B6C-9D57-96E17C6B9D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D6DE16-DBB2-429D-9F72-B9A88C28F2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21996" windowHeight="13176" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
+    <workbookView xWindow="75" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1"/>
@@ -744,12 +744,31 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>使用DB</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRJECTAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE DATABASE PROJECTAD CHARACTER SET utf8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRANT ALL ON  PROJECTAD.* TO 'fdadmin'@'%' WITH GRANT OPTION;&lt;br&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -777,13 +796,33 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292F"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -972,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,6 +1021,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,50 +1036,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,7 +1401,7 @@
   <dimension ref="B2:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS16" sqref="AS16"/>
+      <selection activeCell="BO12" sqref="BO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,7 +1409,7 @@
     <col min="1" max="102" width="2.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:51" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
         <v>27</v>
       </c>
@@ -1377,7 +1425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:51" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1393,8 +1441,14 @@
       <c r="AJ4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AV4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>4</v>
       </c>
@@ -1421,8 +1475,12 @@
       <c r="AJ6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AX6" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY6" s="21"/>
+    </row>
+    <row r="7" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>5</v>
       </c>
@@ -1435,8 +1493,12 @@
       <c r="AJ7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AX7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY7" s="22"/>
+    </row>
+    <row r="8" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1453,21 +1515,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>7</v>
       </c>
       <c r="V9" t="s">
         <v>19</v>
       </c>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AJ9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1491,33 +1553,33 @@
       <c r="V11" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="4" t="s">
         <v>89</v>
       </c>
       <c r="AJ11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="V12" t="s">
         <v>22</v>
       </c>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AJ12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:51" x14ac:dyDescent="0.3">
       <c r="AD13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:51" x14ac:dyDescent="0.3">
       <c r="U14" t="s">
         <v>29</v>
       </c>
@@ -1531,7 +1593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:51" x14ac:dyDescent="0.3">
       <c r="V15" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:51" x14ac:dyDescent="0.3">
       <c r="V16" t="s">
         <v>59</v>
       </c>
@@ -1687,19 +1749,19 @@
       <c r="N28" t="s">
         <v>52</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="3" t="s">
+      <c r="S28" s="6"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="5"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="7"/>
       <c r="AB28" t="s">
         <v>55</v>
       </c>
@@ -1764,213 +1826,237 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="10"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="18"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="9"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="9"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:R9"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="S9:W9"/>
     <mergeCell ref="S2:W2"/>
@@ -1979,30 +2065,6 @@
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="S7:W7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:R9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:R5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Project_AD設計資料.xlsx
+++ b/document/Project_AD設計資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\officinaWork\com.officina-hide.base\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D6DE16-DBB2-429D-9F72-B9A88C28F2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A01140-4D67-418B-9A6E-54835D5EBBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21996" windowHeight="13176" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="1" r:id="rId1"/>
@@ -1027,6 +1027,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,6 +1045,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,41 +1081,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,7 +1401,7 @@
   <dimension ref="B2:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BO12" sqref="BO12"/>
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,10 +1475,10 @@
       <c r="AJ6" t="s">
         <v>31</v>
       </c>
-      <c r="AX6" s="23" t="s">
+      <c r="AX6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AY6" s="21"/>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
@@ -1493,10 +1493,10 @@
       <c r="AJ7" t="s">
         <v>30</v>
       </c>
-      <c r="AX7" s="23" t="s">
+      <c r="AX7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AY7" s="22"/>
+      <c r="AY7" s="6"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
@@ -1749,19 +1749,19 @@
       <c r="N28" t="s">
         <v>52</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="5" t="s">
+      <c r="S28" s="9"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="7"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="10"/>
       <c r="AB28" t="s">
         <v>55</v>
       </c>
@@ -1826,7 +1826,7 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="12"/>
@@ -1855,208 +1855,184 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="13"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="9"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="20"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="20"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="9"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:R9"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="S9:W9"/>
     <mergeCell ref="S2:W2"/>
@@ -2065,6 +2041,30 @@
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="S7:W7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:R5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Project_AD設計資料.xlsx
+++ b/document/Project_AD設計資料.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\officinaWork\com.officina-hide.base\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D6DE16-DBB2-429D-9F72-B9A88C28F2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AF8A5-42EC-453A-91F3-95011C5AD4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
   </bookViews>
@@ -811,7 +811,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +821,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +1033,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,15 +1092,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,7 +1410,7 @@
   <dimension ref="B2:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BO12" sqref="BO12"/>
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,10 +1484,10 @@
       <c r="AJ6" t="s">
         <v>31</v>
       </c>
-      <c r="AX6" s="23" t="s">
+      <c r="AX6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AY6" s="21"/>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
@@ -1493,10 +1502,10 @@
       <c r="AJ7" t="s">
         <v>30</v>
       </c>
-      <c r="AX7" s="23" t="s">
+      <c r="AX7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AY7" s="22"/>
+      <c r="AY7" s="6"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
@@ -1597,7 +1606,7 @@
       <c r="V15" t="s">
         <v>37</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AK15" t="s">
@@ -1611,7 +1620,7 @@
       <c r="V16" t="s">
         <v>59</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16" s="8" t="s">
         <v>60</v>
       </c>
       <c r="AK16" t="s">
@@ -1625,7 +1634,7 @@
       <c r="V17" t="s">
         <v>40</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AK17" t="s">
@@ -1639,7 +1648,7 @@
       <c r="V18" t="s">
         <v>42</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AK18" t="s">
@@ -1653,7 +1662,7 @@
       <c r="V19" t="s">
         <v>17</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="8" t="s">
         <v>45</v>
       </c>
       <c r="AK19" t="s">
@@ -1670,7 +1679,7 @@
       <c r="V20" t="s">
         <v>46</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AX20" t="s">
@@ -1684,7 +1693,7 @@
       <c r="V21" t="s">
         <v>48</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="8" t="s">
         <v>49</v>
       </c>
       <c r="AX21" s="1" t="s">
@@ -1749,19 +1758,19 @@
       <c r="N28" t="s">
         <v>52</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="5" t="s">
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="7"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="11"/>
       <c r="AB28" t="s">
         <v>55</v>
       </c>
@@ -1826,210 +1835,210 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="13"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="9"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="13"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="9"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="13"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="9"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="13"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="9"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
     </row>
     <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">

--- a/document/Project_AD設計資料.xlsx
+++ b/document/Project_AD設計資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\officinaWork\com.officina-hide.base\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AF8A5-42EC-453A-91F3-95011C5AD4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F44CB-0AE6-427A-B2BF-84D5BC4E5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21996" windowHeight="13176" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1"/>
@@ -761,6 +761,14 @@
   </si>
   <si>
     <t>GRANT ALL ON  PROJECTAD.* TO 'fdadmin'@'%' WITH GRANT OPTION;&lt;br&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE DATABASE PICTURE CHARACTER SET utf8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRANT ALL ON  PICTURE.* TO 'fdadmin'@'%' WITH GRANT OPTION;&lt;br&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1054,6 +1062,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,31 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706BCB1B-097F-438F-8FCE-56902E075237}">
   <dimension ref="B2:BB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,6 +1545,9 @@
       <c r="AJ9" t="s">
         <v>36</v>
       </c>
+      <c r="AX9" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
@@ -1550,6 +1561,9 @@
       </c>
       <c r="AJ10" t="s">
         <v>34</v>
+      </c>
+      <c r="AX10" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.3">
@@ -1835,237 +1849,213 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="13"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="21"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="21"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
     </row>
     <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:R9"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="S9:W9"/>
     <mergeCell ref="S2:W2"/>
@@ -2074,6 +2064,30 @@
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="S7:W7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:R5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Project_AD設計資料.xlsx
+++ b/document/Project_AD設計資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\officinaWork\com.officina-hide.base\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F44CB-0AE6-427A-B2BF-84D5BC4E5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24CD836-962D-4B3E-8292-BC4A15A57627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21996" windowHeight="13176" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
+    <workbookView xWindow="75" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{F0D65F3E-9D8E-4708-BA6B-359CEC93833E}"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1"/>
@@ -769,6 +769,14 @@
   </si>
   <si>
     <t>GRANT ALL ON  PICTURE.* TO 'fdadmin'@'%' WITH GRANT OPTION;&lt;br&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE DATABASE MEDICAL CHARACTER SET utf8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRANT ALL ON  MEDICAL.* TO 'fdadmin'@'%' WITH GRANT OPTION;&lt;br&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1062,12 +1070,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1086,19 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1418,7 +1426,7 @@
   <dimension ref="B2:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,10 +1604,16 @@
       <c r="AJ12" t="s">
         <v>32</v>
       </c>
+      <c r="AX12" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.3">
       <c r="AD13" t="s">
         <v>90</v>
+      </c>
+      <c r="AX13" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.3">
@@ -1849,213 +1863,237 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="24"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="21"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="13"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="13"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="13"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
     </row>
     <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:R9"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="S9:W9"/>
     <mergeCell ref="S2:W2"/>
@@ -2064,30 +2102,6 @@
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="S7:W7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:R9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:R5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
